--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Proposicion 16 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ACAFC2-F27E-4B10-A970-96D5F568E333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802C7710-42C3-4C2D-BABD-0CBE9881E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>angulo</t>
   </si>
   <si>
-    <t>Postulado 1</t>
-  </si>
-  <si>
-    <t>Proposición I.10</t>
-  </si>
-  <si>
     <t>Trazar el segmento $\overline{EG}$</t>
   </si>
   <si>
@@ -131,18 +125,12 @@
     <t>{'x1':-3, 'y1':0, 'x2':-1.75, 'y2':0.5}</t>
   </si>
   <si>
-    <t>Postulado 2</t>
-  </si>
-  <si>
     <t>{'x1':-3, 'y1':0, 'x2':0.72, 'y2':1.5}</t>
   </si>
   <si>
     <t>{'x':0.72,'y':1.5,'nombre':'F'}</t>
   </si>
   <si>
-    <t>Proposición I.3</t>
-  </si>
-  <si>
     <t>{'x':-0.36,'y':1.07,'nombre':'G'}</t>
   </si>
   <si>
@@ -191,18 +179,6 @@
     <t>Tomamos el punto $G$</t>
   </si>
   <si>
-    <t xml:space="preserve">$\overline{AE} = \overline{EC}$ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\overline{BE} = \overline{EG}$ </t>
-  </si>
-  <si>
-    <t>$\angle BEA = \angle GEC$</t>
-  </si>
-  <si>
-    <t>Proposición I.15</t>
-  </si>
-  <si>
     <t>{'x1':-0.36, 'y1':1.07, 'x2':0.72, 'y2':1.5}</t>
   </si>
   <si>
@@ -212,24 +188,12 @@
     <t>{'A':(-1,0), 'B':(-1.75,0.5), 'C':(-0.36,1.07)}</t>
   </si>
   <si>
-    <t>Por los pasos 20,21,22 decimos que $\triangle ABE = \triangle FEC$</t>
-  </si>
-  <si>
-    <t>Proposición I.4</t>
-  </si>
-  <si>
-    <t>Axioma 5</t>
-  </si>
-  <si>
     <t>{'A':(1,0), 'B':(-1,0), 'C':(-2.5,1)}</t>
   </si>
   <si>
     <t>{'A':(-0.36,1.07), 'B':(-1,0), 'C':(-2.5,1)}</t>
   </si>
   <si>
-    <t xml:space="preserve">$\angle BAE = \angle ECG$ </t>
-  </si>
-  <si>
     <t>$\angle ACD &gt; \angle ECG$</t>
   </si>
   <si>
@@ -246,6 +210,42 @@
   </si>
   <si>
     <t>{'A':(-1,0), 'B':(-3,0), 'C':(-2.5,1)}</t>
+  </si>
+  <si>
+    <t>Postulado II</t>
+  </si>
+  <si>
+    <t>Proposición I.X</t>
+  </si>
+  <si>
+    <t>Postulado I</t>
+  </si>
+  <si>
+    <t>Proposición I.III</t>
+  </si>
+  <si>
+    <t>Proposición I.XV</t>
+  </si>
+  <si>
+    <t>Proposición I.IV</t>
+  </si>
+  <si>
+    <t>Axioma X</t>
+  </si>
+  <si>
+    <t>$\angle BEA \cong \angle GEC$</t>
+  </si>
+  <si>
+    <t>De las afirmaciones (20), (22), (21), se deduce que $\triangle ABE \cong \triangle FEC$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\angle BAE \cong \angle ECG$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\overline{AE} \cong \overline{EC}$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\overline{BE} \cong \overline{EG}$ </t>
   </si>
 </sst>
 </file>
@@ -281,12 +281,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209630F0-6D4A-4468-B828-607EAE159F84}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,16 +672,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -690,16 +689,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,16 +723,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,16 +740,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,16 +757,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -775,16 +774,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,16 +808,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -826,16 +825,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,16 +842,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -860,16 +859,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -877,16 +876,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -894,16 +893,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -911,16 +910,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,16 +927,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -945,16 +944,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -962,16 +961,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -979,10 +978,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -990,10 +989,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,16 +1000,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,16 +1017,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1035,10 +1034,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1046,16 +1045,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,16 +1062,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,16 +1079,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,10 +1096,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,16 +1107,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Proposicion 16 aplicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802C7710-42C3-4C2D-BABD-0CBE9881E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27175012-B459-44D6-B6BA-769B5B6F7503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209630F0-6D4A-4468-B828-607EAE159F84}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27175012-B459-44D6-B6BA-769B5B6F7503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD07715D-A51C-447A-80D4-3E6980C8A10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t xml:space="preserve">Tomar un punto medio $E$ en el segmento $\overline{AC}$ </t>
   </si>
   <si>
-    <t>Prolongamos el segmento $\overline{BC}$ a un punto $D$</t>
-  </si>
-  <si>
     <t>Tomar el punto $D$</t>
   </si>
   <si>
@@ -173,12 +170,6 @@
     <t>{'x1':-1.75, 'y1':0.5, 'x2':0.72, 'y2':1.5}</t>
   </si>
   <si>
-    <t>Quitamos del segmento $\overline{EF}$ el segmento $\overline{BE}$ obteniendo el segmento $\overline{GF}$</t>
-  </si>
-  <si>
-    <t>Tomamos el punto $G$</t>
-  </si>
-  <si>
     <t>{'x1':-0.36, 'y1':1.07, 'x2':0.72, 'y2':1.5}</t>
   </si>
   <si>
@@ -246,6 +237,15 @@
   </si>
   <si>
     <t xml:space="preserve">$\overline{BE} \cong \overline{EG}$ </t>
+  </si>
+  <si>
+    <t>Tomar el punto $G$</t>
+  </si>
+  <si>
+    <t>Prolongar el segmento $\overline{BC}$ a un punto $D$</t>
+  </si>
+  <si>
+    <t>Quitar del segmento $\overline{EF}$ el segmento $\overline{BE}$ obteniendo el segmento $\overline{GF}$</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -811,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -845,7 +845,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -859,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -893,16 +893,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -910,16 +910,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -978,10 +978,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -989,10 +989,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,16 +1000,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,16 +1017,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1034,10 +1034,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1045,16 +1045,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1062,16 +1062,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1079,16 +1079,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1107,16 +1107,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD07715D-A51C-447A-80D4-3E6980C8A10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6E4EF7-900A-4AA7-B4E2-72511F0BB7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>$\angle BEA \cong \angle GEC$</t>
   </si>
   <si>
-    <t>De las afirmaciones (20), (22), (21), se deduce que $\triangle ABE \cong \triangle FEC$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$\angle BAE \cong \angle ECG$ </t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Quitar del segmento $\overline{EF}$ el segmento $\overline{BE}$ obteniendo el segmento $\overline{GF}$</t>
+  </si>
+  <si>
+    <t>De las afirmaciones (20), (22), (21), se deduce que $\triangle ABE \cong \triangle GEC$</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209630F0-6D4A-4468-B828-607EAE159F84}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
@@ -910,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -978,7 +978,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
@@ -1034,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -1079,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
